--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1004637.06611077</v>
+        <v>-1008202.56798432</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791239</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12950165.97728944</v>
+        <v>12946626.10094693</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>78.02090876701635</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>385.249887030008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>47.63147056405778</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -792,7 +792,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>173.0631405983766</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>92.73332987875129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.3113818657389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>298.6939235562521</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>33.19334180315847</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722575</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.9247026980578</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.65457244093113</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>203.5862281568401</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>300.4069330447837</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>327.5643509816541</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>42.22674935012078</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>163.9399310463981</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1382,13 +1382,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>30.81515717968568</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>59.05968777429167</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1528,13 +1528,13 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
         <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
         <v>84.67436304442482</v>
@@ -1543,10 +1543,10 @@
         <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1588,13 +1588,13 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>67.98775867024715</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>26.82528348096828</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>194.1359497660629</v>
       </c>
       <c r="G14" t="n">
-        <v>11.20005158964299</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>22.54515085291794</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
@@ -1822,7 +1822,7 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>109.1307009444878</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135893</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954278</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568057</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291031</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838868</v>
+        <v>24.1738259657499</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828881</v>
+        <v>52.06849973565002</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162026</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431713</v>
+        <v>70.57601873167835</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459954</v>
+        <v>55.72314698196075</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643926</v>
+        <v>41.29686219380048</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931837</v>
+        <v>41.22330424667959</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908564</v>
+        <v>42.97275566644686</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147778</v>
+        <v>53.79159358883899</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804982</v>
+        <v>41.14384575541104</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922175</v>
+        <v>18.98356133658297</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367767</v>
+        <v>9.882059701038884</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920499</v>
+        <v>88.0080032065662</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404469</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.160640748063</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947756</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714519</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.129079616772</v>
+        <v>939.7902088643782</v>
       </c>
       <c r="C2" t="n">
-        <v>854.9535781197021</v>
+        <v>939.7902088643782</v>
       </c>
       <c r="D2" t="n">
-        <v>469.5124493363699</v>
+        <v>939.7902088643782</v>
       </c>
       <c r="E2" t="n">
-        <v>469.5124493363699</v>
+        <v>537.2066839809227</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634767</v>
+        <v>120.3122455109004</v>
       </c>
       <c r="G2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>188.145432303583</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>681.4657240221118</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1219.724509032204</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N2" t="n">
-        <v>1747.535792669666</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606223</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737745</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678795</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.269414678795</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.269414678795</v>
+        <v>1652.896053192572</v>
       </c>
       <c r="V2" t="n">
-        <v>2008.269414678795</v>
+        <v>1310.789243896091</v>
       </c>
       <c r="W2" t="n">
-        <v>1637.270379647083</v>
+        <v>939.7902088643782</v>
       </c>
       <c r="X2" t="n">
-        <v>1637.270379647083</v>
+        <v>939.7902088643782</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.129079616772</v>
+        <v>939.7902088643782</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828433</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144823</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653837</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875476</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466457</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182854</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635809</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535678</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734586</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1664.140184604913</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1441.60018297598</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1211.482937109267</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>1022.175859459279</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y3" t="n">
-        <v>842.8616425347859</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>530.7009598706355</v>
+        <v>330.2307852167459</v>
       </c>
       <c r="C4" t="n">
-        <v>530.7009598706355</v>
+        <v>330.2307852167459</v>
       </c>
       <c r="D4" t="n">
-        <v>530.7009598706355</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="E4" t="n">
-        <v>530.7009598706355</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="F4" t="n">
-        <v>530.7009598706355</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4469059700811</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315751</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865295</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J4" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784965</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>742.1265981188567</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U4" t="n">
-        <v>742.1265981188567</v>
+        <v>613.5611872855682</v>
       </c>
       <c r="V4" t="n">
-        <v>742.1265981188567</v>
+        <v>613.5611872855682</v>
       </c>
       <c r="W4" t="n">
-        <v>742.1265981188567</v>
+        <v>330.2307852167459</v>
       </c>
       <c r="X4" t="n">
-        <v>742.1265981188567</v>
+        <v>330.2307852167459</v>
       </c>
       <c r="Y4" t="n">
-        <v>530.7009598706355</v>
+        <v>330.2307852167459</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1145.799709471572</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="C5" t="n">
-        <v>752.6242079745023</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="D5" t="n">
-        <v>367.18307919117</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E5" t="n">
-        <v>367.18307919117</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F5" t="n">
-        <v>354.3290447615518</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>345.206693289959</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H5" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I5" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>43.4956593947549</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>43.4956593947549</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>135.640247925392</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354839</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572946</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465274</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596796</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023267</v>
+        <v>2041.633709732924</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023267</v>
+        <v>2041.633709732924</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.289453582683</v>
+        <v>2041.633709732924</v>
       </c>
       <c r="U5" t="n">
-        <v>1913.289453582683</v>
+        <v>2041.633709732924</v>
       </c>
       <c r="V5" t="n">
-        <v>1913.289453582683</v>
+        <v>2041.633709732924</v>
       </c>
       <c r="W5" t="n">
-        <v>1542.290418550971</v>
+        <v>1670.634674701212</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.290418550971</v>
+        <v>1670.634674701212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1145.799709471572</v>
+        <v>1274.143965621813</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828433</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767087</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653837</v>
+        <v>642.3356118811487</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875476</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466457</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182854</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635809</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S6" t="n">
-        <v>2150.865926635809</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T6" t="n">
-        <v>1973.882114834717</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1763.818971513359</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1541.278969884426</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1311.161724017713</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1121.854646367725</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.9683549315751</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="C7" t="n">
-        <v>206.9683549315751</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="D7" t="n">
-        <v>206.9683549315751</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="E7" t="n">
-        <v>206.9683549315751</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="F7" t="n">
-        <v>206.9683549315751</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="G7" t="n">
-        <v>206.9683549315751</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315751</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865295</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J7" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784965</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V7" t="n">
-        <v>678.9633367571316</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W7" t="n">
-        <v>678.9633367571316</v>
+        <v>535.7188778616455</v>
       </c>
       <c r="X7" t="n">
-        <v>444.8830145401147</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="Y7" t="n">
-        <v>221.770953356758</v>
+        <v>330.0762231577666</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1504.894561026955</v>
+        <v>1197.664015254672</v>
       </c>
       <c r="C8" t="n">
-        <v>1504.894561026955</v>
+        <v>1197.664015254672</v>
       </c>
       <c r="D8" t="n">
-        <v>1504.894561026955</v>
+        <v>1197.664015254672</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>795.0804903712165</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>378.1860519011942</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>943.648829263616</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1489.649729308197</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>2017.461012945658</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1885.656118784443</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2233.843610915965</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1905.389306738351</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1905.389306738351</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="X8" t="n">
-        <v>1905.389306738351</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="Y8" t="n">
-        <v>1905.389306738351</v>
+        <v>1598.158760966069</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>858.0088487631995</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.3445224472808</v>
+        <v>374.8440228225815</v>
       </c>
       <c r="C10" t="n">
-        <v>120.3445224472808</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="D10" t="n">
-        <v>120.3445224472808</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E10" t="n">
-        <v>120.3445224472808</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F10" t="n">
-        <v>120.3445224472808</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>120.3445224472808</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>120.3445224472808</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>120.3445224472808</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>120.3445224472808</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>120.3445224472808</v>
+        <v>783.1641026972394</v>
       </c>
       <c r="Y10" t="n">
-        <v>120.3445224472808</v>
+        <v>560.0520415138827</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1452.672125045209</v>
+        <v>1722.982659195497</v>
       </c>
       <c r="C11" t="n">
-        <v>1452.672125045209</v>
+        <v>1401.603432844622</v>
       </c>
       <c r="D11" t="n">
-        <v>1139.027271408071</v>
+        <v>1087.958579207483</v>
       </c>
       <c r="E11" t="n">
-        <v>808.2400216708093</v>
+        <v>757.1713294702213</v>
       </c>
       <c r="F11" t="n">
-        <v>463.1418583469809</v>
+        <v>412.0731661463942</v>
       </c>
       <c r="G11" t="n">
-        <v>121.775377981178</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H11" t="n">
-        <v>121.775377981178</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5072,19 +5072,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579423</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2376.375563693905</v>
       </c>
       <c r="X11" t="n">
-        <v>2106.065029543617</v>
+        <v>2376.375563693905</v>
       </c>
       <c r="Y11" t="n">
-        <v>1781.370595610412</v>
+        <v>2051.681129760701</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1974.833293963354</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>327.9434040506006</v>
+        <v>655.0952099420615</v>
       </c>
       <c r="C13" t="n">
-        <v>327.9434040506006</v>
+        <v>556.6863671542446</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1065660993092</v>
+        <v>472.8495292029532</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1065660993092</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
         <v>999.626924813816</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>1152.070316531346</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628195</v>
+        <v>957.8872464983639</v>
       </c>
       <c r="W13" t="n">
-        <v>661.345437340191</v>
+        <v>957.8872464983639</v>
       </c>
       <c r="X13" t="n">
-        <v>592.6709336328707</v>
+        <v>795.6031994275409</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.355147595708</v>
+        <v>768.5069534871689</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1636.628579464417</v>
+        <v>1565.393856750813</v>
       </c>
       <c r="C14" t="n">
-        <v>1315.249353113542</v>
+        <v>1244.014630399937</v>
       </c>
       <c r="D14" t="n">
-        <v>1001.604499476403</v>
+        <v>930.3697767627991</v>
       </c>
       <c r="E14" t="n">
-        <v>670.8172497391415</v>
+        <v>599.5825270255375</v>
       </c>
       <c r="F14" t="n">
-        <v>325.7190864153131</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5276,19 +5276,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W14" t="n">
-        <v>2290.021483962825</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="X14" t="n">
-        <v>2290.021483962825</v>
+        <v>2218.786761249221</v>
       </c>
       <c r="Y14" t="n">
-        <v>1965.32705002962</v>
+        <v>1894.092327316016</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1634.317313094942</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.8305097821774</v>
+        <v>318.2838994630213</v>
       </c>
       <c r="C16" t="n">
-        <v>170.4216669943605</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="D16" t="n">
-        <v>170.4216669943605</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="E16" t="n">
-        <v>170.4216669943605</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="F16" t="n">
-        <v>84.89200735352759</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118219</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138157</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457735</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127917</v>
+        <v>956.8296030387428</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901632</v>
+        <v>745.2954761161144</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193401</v>
+        <v>583.0114290452914</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.8305097821774</v>
+        <v>431.6956430081286</v>
       </c>
     </row>
     <row r="17">
@@ -5498,22 +5498,22 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
         <v>565.7512566404057</v>
@@ -5531,7 +5531,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5543,7 +5543,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5589,19 +5589,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>62.11912770411552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
         <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390484</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128482</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823215</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O19" t="n">
-        <v>939.5504151240295</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,34 +5768,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5814,10 +5814,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5826,13 +5826,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
         <v>978.5393418843826</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072676</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291065</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390484</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128481</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511122</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879432</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296512</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,40 +6157,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445259</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386234</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162813</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958361</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614365</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6251,25 +6251,25 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6303,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
         <v>1235.193651060917</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6382,13 +6382,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6397,7 +6397,7 @@
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6467,46 +6467,46 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236565</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>330.2146855069349</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
@@ -6607,28 +6607,28 @@
         <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286446</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463654</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.898782305708</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.146589723076</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189319</v>
+        <v>91.97314162835511</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076156</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766601</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311923</v>
+        <v>794.4915056886007</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1287.811797407129</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055614</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923633</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908494</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397275</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291773</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154195</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004161</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076156</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="L33" t="n">
-        <v>575.5983691435694</v>
+        <v>551.1212215006583</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>573.6059565051531</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965112</v>
+        <v>365.6713676929721</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918652</v>
+        <v>309.3853606404865</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237448</v>
+        <v>267.6713584245264</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123121</v>
+        <v>226.031657165254</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546498</v>
+        <v>182.6248332597522</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834601</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431888</v>
+        <v>86.73045008374204</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076156</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703945</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803364</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812066</v>
+        <v>425.1699371610695</v>
       </c>
       <c r="M34" t="n">
-        <v>787.847343146541</v>
+        <v>723.1136360743164</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777503</v>
+        <v>906.3032701055256</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946529</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450178</v>
+        <v>1264.910118928623</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.11361574664</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308582</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420496</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518095</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.88095068936</v>
+        <v>987.7859626250192</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395494</v>
+        <v>835.7257283273686</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000918</v>
+        <v>666.3144371400714</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124396</v>
+        <v>546.1532258045796</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584478</v>
+        <v>436.9602755027482</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7166,7 +7166,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.467337224691</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7342,16 +7342,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7439,7 +7439,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188067</v>
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229839</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222403</v>
       </c>
       <c r="L43" t="n">
-        <v>435.0968109750523</v>
+        <v>442.7178209184686</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7664,31 +7664,31 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7722,28 +7722,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411552</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M46" t="n">
-        <v>621.3883893133154</v>
+        <v>621.3883893133172</v>
       </c>
       <c r="N46" t="n">
-        <v>804.5780233445246</v>
+        <v>804.5780233445264</v>
       </c>
       <c r="O46" t="n">
-        <v>967.2827903862326</v>
+        <v>967.2827903862344</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162811</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532864</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321635</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>657.8797217754561</v>
       </c>
       <c r="O2" t="n">
-        <v>229.4221050367805</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>419.0606576562831</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886028</v>
+        <v>285.3870922018752</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>246.3235116806302</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321635</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>213.3952764296698</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999372</v>
+        <v>210.8379091467836</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886028</v>
+        <v>604.1626973083974</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9186043019891</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>277.6349551468923</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>471.7186805737889</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>593.5689418267924</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,13 +8778,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>457.616862805975</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,7 +9960,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>454.5321323046924</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>349.0412045852371</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,16 +10425,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>163.996400009296</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>115.0989755892057</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,16 +11145,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>223.122899967847</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>307.1376583824592</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.815745569436195</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>92.67344792986761</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>122.9773446958229</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>147.5112319245272</v>
       </c>
       <c r="G14" t="n">
-        <v>326.7527639725019</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>72.94805011389901</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>83.1105383881642</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1129178.060140373</v>
+        <v>1127373.417299093</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1129178.060140373</v>
+        <v>1127373.417299093</v>
       </c>
     </row>
     <row r="4">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198365.3959026925</v>
+        <v>198365.3959026924</v>
       </c>
       <c r="C2" t="n">
         <v>198365.3959026924</v>
@@ -26320,7 +26320,7 @@
         <v>198365.3959026924</v>
       </c>
       <c r="E2" t="n">
-        <v>175294.9257668407</v>
+        <v>175294.9257668408</v>
       </c>
       <c r="F2" t="n">
         <v>175294.9257668408</v>
@@ -26338,22 +26338,22 @@
         <v>198365.3959026925</v>
       </c>
       <c r="K2" t="n">
+        <v>198365.3959026924</v>
+      </c>
+      <c r="L2" t="n">
+        <v>198365.3959026928</v>
+      </c>
+      <c r="M2" t="n">
         <v>198365.3959026925</v>
       </c>
-      <c r="L2" t="n">
-        <v>198365.3959026926</v>
-      </c>
-      <c r="M2" t="n">
-        <v>198365.3959026924</v>
-      </c>
       <c r="N2" t="n">
-        <v>198365.3959026924</v>
+        <v>198365.3959026925</v>
       </c>
       <c r="O2" t="n">
         <v>198365.3959026924</v>
       </c>
       <c r="P2" t="n">
-        <v>198365.3959026924</v>
+        <v>198365.3959026925</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918555</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062222</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668192</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728567</v>
+        <v>62456.24177539669</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277126</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26427,7 +26427,7 @@
         <v>151510.2534766782</v>
       </c>
       <c r="F4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.2534766782</v>
       </c>
       <c r="G4" t="n">
         <v>199269.1699682603</v>
@@ -26439,13 +26439,13 @@
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>200019.6624326434</v>
+        <v>200019.6624326435</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326434</v>
+        <v>200019.6624326435</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.08853216</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26457,7 +26457,7 @@
         <v>199269.1699682603</v>
       </c>
       <c r="P4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001372</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001372</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173846</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-282948.1661430562</v>
+        <v>-277995.1727150014</v>
       </c>
       <c r="C6" t="n">
-        <v>-100743.2178512008</v>
+        <v>-104136.5156809463</v>
       </c>
       <c r="D6" t="n">
-        <v>-109064.0582367704</v>
+        <v>-116800.3474601617</v>
       </c>
       <c r="E6" t="n">
-        <v>-141523.9088837226</v>
+        <v>-141733.6404304121</v>
       </c>
       <c r="F6" t="n">
-        <v>-29401.3474096779</v>
+        <v>-29611.07895636743</v>
       </c>
       <c r="G6" t="n">
         <v>-106498.8689177694</v>
       </c>
       <c r="H6" t="n">
-        <v>-59073.5433810875</v>
+        <v>-59073.5433810876</v>
       </c>
       <c r="I6" t="n">
-        <v>-59073.54338108745</v>
+        <v>-59073.54338108748</v>
       </c>
       <c r="J6" t="n">
-        <v>-272115.4609783728</v>
+        <v>-265599.1758237999</v>
       </c>
       <c r="K6" t="n">
-        <v>-65313.31178387043</v>
+        <v>-65313.31178387058</v>
       </c>
       <c r="L6" t="n">
-        <v>-120495.9007184916</v>
+        <v>-124544.7379289635</v>
       </c>
       <c r="M6" t="n">
-        <v>-101274.3728407106</v>
+        <v>-102326.0678518987</v>
       </c>
       <c r="N6" t="n">
-        <v>-59073.54338108754</v>
+        <v>-59073.54338108757</v>
       </c>
       <c r="O6" t="n">
-        <v>-86841.23742385878</v>
+        <v>-86841.23742385884</v>
       </c>
       <c r="P6" t="n">
-        <v>-59073.54338108757</v>
+        <v>-59073.54338108737</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344362</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344362</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,22 +26802,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095194</v>
+        <v>844.4391950293139</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660709</v>
+        <v>78.07030221924586</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551325</v>
+        <v>17.58004954287446</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344362</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7163838348589</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773704</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407372</v>
+        <v>117.1268713042792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208524</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344362</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.7163838348589</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,19 +27379,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>331.0102191898605</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27433,10 +27433,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.275914958596843</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>75.55601749164174</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>34.89937128976803</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,16 +27549,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>189.8510739617668</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.56955870578415</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>22.14829637292218</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4.419642774174811</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758549</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>51.59637205719002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.7013660634571</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27789,13 +27789,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>28.1532908380066</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>98.15075658983716</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>81.46677697522279</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28020,7 +28020,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>89.5367317591721</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>67.79958794844859</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>35.7104901066885</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>35.7104901066887</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901266</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431658</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
-        <v>86.65052755599589</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000711</v>
+        <v>43.49509683160073</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566085</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000711</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000711</v>
+        <v>76.79385455031417</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861253661</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O40" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528316</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,14 +30639,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>35.71049010668722</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>28.01250026485263</v>
-      </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>128.297982108277</v>
+        <v>28.0125002648536</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34699,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344362</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>508.7612304376721</v>
       </c>
       <c r="O2" t="n">
-        <v>79.85826761268407</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>326.6735356069711</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344362</v>
+        <v>200.0149793477086</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>93.07534195013852</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344362</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>64.2767850918857</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200681805</v>
+        <v>118.4507870974717</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344362</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>396.6704345714974</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>133.1362567285001</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>381.6583337168707</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>501.1818197774805</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,13 +35498,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>372.2447499518083</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36042,7 +36042,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>156.7975262446467</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>220.7505244816475</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>313.3380164832371</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>7.69798984183555</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907923</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,7 +36680,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>563.4149484039233</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>438.3550650625836</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>259.4442692519037</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261601</v>
+        <v>258.8908014987989</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318507</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111302</v>
+        <v>230.2077838426599</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738832758</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>73.93605315237775</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>22.71185353989377</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791205</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220911</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528631</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.68470683715</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380293</v>
+        <v>197.8808906882723</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262268909</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O40" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680799</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,16 +37865,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528147</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>193.7979950868726</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38181,7 +38181,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>316.4712935610689</v>
+        <v>216.1858117176455</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835636</v>
+        <v>7.697989841835522</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
